--- a/data/output/FV2504_FV2410/UTILMD/55201.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55201.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2540" uniqueCount="258">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="258">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -881,6 +881,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U115" totalsRowShown="0">
+  <autoFilter ref="A1:U115"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1170,7 +1200,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6702,5 +6735,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55201.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55201.xlsx
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4181,7 +4181,7 @@
         <v>234</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4583,7 +4583,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4885,7 +4885,7 @@
         <v>236</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5085,7 +5085,7 @@
         <v>237</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5295,7 +5295,7 @@
         <v>239</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5505,7 +5505,7 @@
         <v>237</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5633,52 +5633,52 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O80" s="5" t="s">
+      <c r="O80" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -5823,7 +5823,7 @@
         <v>240</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6093,7 +6093,7 @@
         <v>242</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6299,7 +6299,7 @@
         <v>242</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6505,7 +6505,7 @@
         <v>242</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6819,7 +6819,7 @@
         <v>243</v>
       </c>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -6947,52 +6947,52 @@
       <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5" t="s">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K105" s="5"/>
+      <c r="K105" s="2"/>
       <c r="L105" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P105" s="5"/>
+      <c r="P105" s="2"/>
       <c r="Q105" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5" t="s">
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V105" s="5"/>
+      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7137,7 +7137,7 @@
         <v>242</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7385,48 +7385,48 @@
       <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="5" t="s">
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K113" s="5"/>
+      <c r="K113" s="2"/>
       <c r="L113" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5" t="s">
+      <c r="N113" s="2"/>
+      <c r="O113" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V113" s="5"/>
+      <c r="V113" s="2"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
